--- a/data/xlsx_structure_upload_and_sale.xlsx
+++ b/data/xlsx_structure_upload_and_sale.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Maxime\Opensea\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D29236-2B05-42E1-99CB-9AB43477E457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53715D35-7B71-42EE-A476-EA7808E36163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C0077194-8054-4665-AC8F-2CBB8D735F36}"/>
   </bookViews>
@@ -108,9 +108,6 @@
     <t xml:space="preserve"> https://github.com/maximedrn/opensea_automatic_uploader</t>
   </si>
   <si>
-    <t xml:space="preserve"> [[Strenght, 10, 100], [Age, 1, 99]]</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Timed Auction</t>
   </si>
   <si>
@@ -126,9 +123,6 @@
     <t xml:space="preserve"> My Second NFT</t>
   </si>
   <si>
-    <t xml:space="preserve"> [[Strenght, 10, 100]]</t>
-  </si>
-  <si>
     <t xml:space="preserve"> [False]</t>
   </si>
   <si>
@@ -153,9 +147,6 @@
     <t xml:space="preserve"> My Third NFT</t>
   </si>
   <si>
-    <t xml:space="preserve"> [Strenght, 10, 100]</t>
-  </si>
-  <si>
     <t xml:space="preserve"> False</t>
   </si>
   <si>
@@ -208,6 +199,15 @@
   </si>
   <si>
     <t xml:space="preserve"> ["Sell to highest bidder", "" ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [["Strenght", 10, 100], ["Age", 1, 99]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [["Strenght", 10, 100]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ["Strenght", 10, 100]</t>
   </si>
 </sst>
 </file>
@@ -587,7 +587,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -670,19 +670,19 @@
         <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="K2" s="1">
         <v>1</v>
@@ -691,19 +691,19 @@
         <v>15</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N2" s="4">
         <v>5</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R2" s="1">
         <v>4</v>
@@ -711,55 +711,55 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="J3" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K3" s="1">
         <v>10</v>
       </c>
       <c r="L3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="O3" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="R3" s="1">
         <v>2</v>
@@ -767,52 +767,52 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="J4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="M4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="P4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="Q4" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
